--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/HEALTH.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/HEALTH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Project Submission\IS201.M21_20520418_20521252_20521720_20521890\Huong dan cai dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\VACCINATION\VACCINATION_MANAGEMENT\src\SQL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
   <si>
     <t>PERSONALID</t>
   </si>
@@ -47,16 +47,79 @@
     <t>1</t>
   </si>
   <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>272826216</t>
+  </si>
+  <si>
+    <t>272697035</t>
+  </si>
+  <si>
+    <t>072302002734</t>
+  </si>
+  <si>
+    <t>272272289</t>
+  </si>
+  <si>
+    <t>082203004408</t>
+  </si>
+  <si>
+    <t>281332992</t>
+  </si>
+  <si>
+    <t>272893719</t>
+  </si>
+  <si>
+    <t>312567854</t>
+  </si>
+  <si>
+    <t>272867563</t>
+  </si>
+  <si>
+    <t>272863413</t>
+  </si>
+  <si>
+    <t>272863193</t>
+  </si>
+  <si>
+    <t>272863183</t>
+  </si>
+  <si>
+    <t>272496184</t>
+  </si>
+  <si>
+    <t>284991638</t>
+  </si>
+  <si>
+    <t>281352653</t>
+  </si>
+  <si>
+    <t>044303003709</t>
+  </si>
+  <si>
+    <t>272893645</t>
+  </si>
+  <si>
+    <t>17-AUG-2022</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>281323065</t>
+  </si>
+  <si>
+    <t>25-MAY-2022</t>
+  </si>
+  <si>
+    <t>30-MAY-2022</t>
+  </si>
+  <si>
     <t>281323066</t>
-  </si>
-  <si>
-    <t>30-MAY-2022</t>
-  </si>
-  <si>
-    <t>25-MAY-2022</t>
-  </si>
-  <si>
-    <t>0010</t>
   </si>
 </sst>
 </file>
@@ -375,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,25 +469,25 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>281323065</v>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>281323065</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -435,15 +498,449 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
